--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EDA45D7-E3D4-4DA6-9F5F-3A5D7151A588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFBD13-A3D3-4491-9F7A-FD786D7ED0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
+    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Filters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filters!$A$1:$C$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,7 +286,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -330,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +668,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFBD13-A3D3-4491-9F7A-FD786D7ED0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047FA4A0-8ECB-458D-9714-7A38AD50F45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
   <sheets>
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
@@ -272,13 +272,13 @@
     <t>FilterType</t>
   </si>
   <si>
-    <t>CustomerStart</t>
-  </si>
-  <si>
     <t>Custom range</t>
   </si>
   <si>
     <t>Past Month</t>
+  </si>
+  <si>
+    <t>CustomStart</t>
   </si>
 </sst>
 </file>
@@ -668,14 +668,14 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -703,7 +703,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -721,7 +721,7 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -730,7 +730,7 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -739,7 +739,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -748,7 +748,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -757,7 +757,7 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -766,7 +766,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -784,7 +784,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -793,7 +793,7 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -811,7 +811,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3">
         <v>45689</v>
@@ -831,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -840,7 +840,7 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -849,7 +849,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -858,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -867,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3">
         <v>45717</v>
@@ -878,7 +878,7 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -896,7 +896,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -905,7 +905,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -914,7 +914,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -923,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -932,7 +932,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -941,7 +941,7 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -959,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -968,7 +968,7 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -977,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -986,7 +986,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -995,7 +995,7 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -1004,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -1013,7 +1013,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3">
         <v>45672</v>
@@ -1033,7 +1033,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -1042,7 +1042,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -1051,7 +1051,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3">
         <v>45717</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3">
         <v>45717</v>
@@ -1082,7 +1082,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3">
         <v>45717</v>
@@ -1093,7 +1093,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="3">
         <v>45717</v>
@@ -1104,7 +1104,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="3">
         <v>45717</v>
@@ -1115,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="3"/>
     </row>
@@ -1124,7 +1124,7 @@
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="3"/>
     </row>
@@ -1133,7 +1133,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -1151,7 +1151,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -1160,7 +1160,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -1169,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -1178,7 +1178,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3"/>
     </row>
@@ -1187,7 +1187,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -1196,7 +1196,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="3"/>
     </row>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="3"/>
     </row>
@@ -1214,7 +1214,7 @@
         <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="3"/>
     </row>
@@ -1223,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="3"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="3"/>
     </row>
@@ -1250,7 +1250,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -1259,7 +1259,7 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="3"/>
     </row>
@@ -1268,7 +1268,7 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -1277,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="3"/>
     </row>
@@ -1286,7 +1286,7 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="3"/>
     </row>
@@ -1295,7 +1295,7 @@
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="3"/>
     </row>
@@ -1313,7 +1313,7 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="3"/>
     </row>
@@ -1322,7 +1322,7 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -1331,7 +1331,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="3"/>
     </row>
@@ -1349,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -1358,7 +1358,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -1367,7 +1367,7 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -1376,7 +1376,7 @@
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="3"/>
     </row>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047FA4A0-8ECB-458D-9714-7A38AD50F45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AEBFCA-6A8B-46ED-BD28-E6208D9450E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>Mountain Blue Farms River Run</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>Custom range</t>
-  </si>
-  <si>
-    <t>Past Month</t>
   </si>
   <si>
     <t>CustomStart</t>
@@ -668,7 +665,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +683,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,126 +691,168 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C2" s="3">
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" ca="1" si="0">TODAY()-(365/12)</f>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -831,36 +870,48 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:C20" ca="1" si="1">TODAY()-(365/12)</f>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -878,144 +929,192 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:C37" ca="1" si="2">TODAY()-(365/12)</f>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1033,27 +1132,36 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" ref="C39:C41" ca="1" si="3">TODAY()-(365/12)</f>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -1115,270 +1223,360 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" ref="C47:C76" ca="1" si="4">TODAY()-(365/12)</f>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45754.583333333336</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C76" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}"/>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AEBFCA-6A8B-46ED-BD28-E6208D9450E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CC791-A3BD-41BC-88E4-FF318CF3F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Mountain Blue Farms River Run</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>CustomStart</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +678,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -685,8 +688,11 @@
       <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -698,7 +704,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -710,7 +716,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -722,7 +728,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -734,7 +740,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -746,7 +752,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -758,7 +764,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -770,7 +776,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -782,7 +788,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -794,7 +800,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -806,7 +812,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -818,7 +824,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
@@ -830,7 +836,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -842,7 +848,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -854,7 +860,7 @@
         <v>45754.583333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CC791-A3BD-41BC-88E4-FF318CF3F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62F599-A888-449E-8F36-A27C9F01C69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
   <si>
     <t>Mountain Blue Farms River Run</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>bussy7598@gmail.com, sbuss@theberrycollective.com</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +679,7 @@
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,7 +705,10 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,7 +720,10 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +735,10 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +750,10 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,7 +765,10 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,7 +780,10 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +795,10 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,7 +810,10 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,7 +825,10 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,7 +840,10 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,7 +855,10 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,7 +870,10 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,7 +885,10 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,7 +900,10 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,8 +916,11 @@
       <c r="C16" s="3">
         <v>45689</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -880,10 +929,13 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ref="C17:C20" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -892,10 +944,13 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -904,10 +959,13 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -916,10 +974,13 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -929,8 +990,11 @@
       <c r="C21" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -939,10 +1003,13 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -951,10 +1018,13 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -963,10 +1033,13 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -975,10 +1048,13 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -987,10 +1063,13 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -999,10 +1078,13 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1011,10 +1093,13 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1023,10 +1108,13 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1035,10 +1123,13 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1047,10 +1138,13 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1059,10 +1153,13 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1071,10 +1168,13 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1083,10 +1183,13 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1095,10 +1198,13 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1107,10 +1213,13 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1119,10 +1228,13 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1132,8 +1244,11 @@
       <c r="C38" s="3">
         <v>45672</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -1142,10 +1257,13 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ref="C39:C41" ca="1" si="3">TODAY()-(365/12)</f>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1154,10 +1272,13 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1166,10 +1287,13 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1179,8 +1303,11 @@
       <c r="C42" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1190,8 +1317,11 @@
       <c r="C43" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1201,8 +1331,11 @@
       <c r="C44" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1212,8 +1345,11 @@
       <c r="C45" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1223,8 +1359,11 @@
       <c r="C46" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1233,10 +1372,13 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ref="C47:C76" ca="1" si="4">TODAY()-(365/12)</f>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
@@ -1245,10 +1387,13 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -1257,10 +1402,13 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -1269,10 +1417,13 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1281,10 +1432,13 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1293,10 +1447,13 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1305,10 +1462,13 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -1317,10 +1477,13 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1329,10 +1492,13 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
@@ -1341,10 +1507,13 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -1353,10 +1522,13 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
@@ -1365,10 +1537,13 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1377,10 +1552,13 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -1389,10 +1567,13 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>15</v>
       </c>
@@ -1401,10 +1582,13 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -1413,10 +1597,13 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -1425,10 +1612,13 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -1437,10 +1627,13 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>20</v>
       </c>
@@ -1449,10 +1642,13 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>38</v>
       </c>
@@ -1461,10 +1657,13 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>57</v>
       </c>
@@ -1473,10 +1672,13 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -1485,10 +1687,13 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -1497,10 +1702,13 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -1509,10 +1717,13 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -1521,10 +1732,13 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
@@ -1533,10 +1747,13 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>24</v>
       </c>
@@ -1545,10 +1762,13 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -1557,10 +1777,13 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
@@ -1569,10 +1792,13 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
@@ -1581,7 +1807,10 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45754.583333333336</v>
+        <v>45755.583333333336</v>
+      </c>
+      <c r="D76" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62F599-A888-449E-8F36-A27C9F01C69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE0063F-6205-4453-9D4E-B88FF9378300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
+    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
   <sheets>
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
@@ -278,10 +278,10 @@
     <t>CustomStart</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>bussy7598@gmail.com, sbuss@theberrycollective.com</t>
+  </si>
+  <si>
+    <t>Emails</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>45689</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>45717</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>45672</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,7 +1260,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>45717</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>45717</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>45717</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>45717</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
         <v>45717</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1585,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>45755.583333333336</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE0063F-6205-4453-9D4E-B88FF9378300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5CB6C-69F9-41C1-A1E7-43F9A048D5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -278,10 +278,10 @@
     <t>CustomStart</t>
   </si>
   <si>
-    <t>bussy7598@gmail.com, sbuss@theberrycollective.com</t>
-  </si>
-  <si>
     <t>Emails</t>
+  </si>
+  <si>
+    <t>bussy7598@gmail.com,sbuss@theberrycollective.com</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +303,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -334,8 +343,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,7 +682,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +704,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,8 +718,8 @@
         <f ca="1">TODAY()-(365/12)</f>
         <v>45755.583333333336</v>
       </c>
-      <c r="D2" t="s">
-        <v>79</v>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,8 +733,8 @@
         <f t="shared" ref="C3:C15" ca="1" si="0">TODAY()-(365/12)</f>
         <v>45755.583333333336</v>
       </c>
-      <c r="D3" t="s">
-        <v>79</v>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,8 +748,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D4" t="s">
-        <v>79</v>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,8 +763,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D5" t="s">
-        <v>79</v>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,8 +778,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,8 +793,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D7" t="s">
-        <v>79</v>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,8 +808,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D8" t="s">
-        <v>79</v>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,8 +823,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D9" t="s">
-        <v>79</v>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,8 +838,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D10" t="s">
-        <v>79</v>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,8 +853,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D11" t="s">
-        <v>79</v>
+      <c r="D11" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,8 +868,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D12" t="s">
-        <v>79</v>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,8 +883,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D13" t="s">
-        <v>79</v>
+      <c r="D13" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,8 +898,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D14" t="s">
-        <v>79</v>
+      <c r="D14" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -902,8 +913,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D15" t="s">
-        <v>79</v>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -916,8 +927,8 @@
       <c r="C16" s="3">
         <v>45689</v>
       </c>
-      <c r="D16" t="s">
-        <v>79</v>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,8 +942,8 @@
         <f t="shared" ref="C17:C20" ca="1" si="1">TODAY()-(365/12)</f>
         <v>45755.583333333336</v>
       </c>
-      <c r="D17" t="s">
-        <v>79</v>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,8 +957,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D18" t="s">
-        <v>79</v>
+      <c r="D18" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,8 +972,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D19" t="s">
-        <v>79</v>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -976,8 +987,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D20" t="s">
-        <v>79</v>
+      <c r="D20" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,8 +1001,8 @@
       <c r="C21" s="3">
         <v>45717</v>
       </c>
-      <c r="D21" t="s">
-        <v>79</v>
+      <c r="D21" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,8 +1016,8 @@
         <f t="shared" ref="C22:C37" ca="1" si="2">TODAY()-(365/12)</f>
         <v>45755.583333333336</v>
       </c>
-      <c r="D22" t="s">
-        <v>79</v>
+      <c r="D22" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,8 +1031,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D23" t="s">
-        <v>79</v>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,8 +1046,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D24" t="s">
-        <v>79</v>
+      <c r="D24" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,8 +1061,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D25" t="s">
-        <v>79</v>
+      <c r="D25" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,8 +1076,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D26" t="s">
-        <v>79</v>
+      <c r="D26" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,8 +1091,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D27" t="s">
-        <v>79</v>
+      <c r="D27" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,8 +1106,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D28" t="s">
-        <v>79</v>
+      <c r="D28" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,8 +1121,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D29" t="s">
-        <v>79</v>
+      <c r="D29" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,8 +1136,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D30" t="s">
-        <v>79</v>
+      <c r="D30" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,8 +1151,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D31" t="s">
-        <v>79</v>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,8 +1166,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D32" t="s">
-        <v>79</v>
+      <c r="D32" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,8 +1181,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D33" t="s">
-        <v>79</v>
+      <c r="D33" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,8 +1196,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D34" t="s">
-        <v>79</v>
+      <c r="D34" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,8 +1211,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D35" t="s">
-        <v>79</v>
+      <c r="D35" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,8 +1226,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D36" t="s">
-        <v>79</v>
+      <c r="D36" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,8 +1241,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D37" t="s">
-        <v>79</v>
+      <c r="D37" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,8 +1255,8 @@
       <c r="C38" s="3">
         <v>45672</v>
       </c>
-      <c r="D38" t="s">
-        <v>79</v>
+      <c r="D38" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,8 +1270,8 @@
         <f t="shared" ref="C39:C41" ca="1" si="3">TODAY()-(365/12)</f>
         <v>45755.583333333336</v>
       </c>
-      <c r="D39" t="s">
-        <v>79</v>
+      <c r="D39" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,8 +1285,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D40" t="s">
-        <v>79</v>
+      <c r="D40" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,8 +1300,8 @@
         <f t="shared" ca="1" si="3"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D41" t="s">
-        <v>79</v>
+      <c r="D41" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,8 +1314,8 @@
       <c r="C42" s="3">
         <v>45717</v>
       </c>
-      <c r="D42" t="s">
-        <v>79</v>
+      <c r="D42" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,8 +1328,8 @@
       <c r="C43" s="3">
         <v>45717</v>
       </c>
-      <c r="D43" t="s">
-        <v>79</v>
+      <c r="D43" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,8 +1342,8 @@
       <c r="C44" s="3">
         <v>45717</v>
       </c>
-      <c r="D44" t="s">
-        <v>79</v>
+      <c r="D44" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,8 +1356,8 @@
       <c r="C45" s="3">
         <v>45717</v>
       </c>
-      <c r="D45" t="s">
-        <v>79</v>
+      <c r="D45" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,8 +1370,8 @@
       <c r="C46" s="3">
         <v>45717</v>
       </c>
-      <c r="D46" t="s">
-        <v>79</v>
+      <c r="D46" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,8 +1385,8 @@
         <f t="shared" ref="C47:C76" ca="1" si="4">TODAY()-(365/12)</f>
         <v>45755.583333333336</v>
       </c>
-      <c r="D47" t="s">
-        <v>79</v>
+      <c r="D47" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,8 +1400,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D48" t="s">
-        <v>79</v>
+      <c r="D48" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,8 +1415,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D49" t="s">
-        <v>79</v>
+      <c r="D49" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,8 +1430,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D50" t="s">
-        <v>79</v>
+      <c r="D50" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,8 +1445,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D51" t="s">
-        <v>79</v>
+      <c r="D51" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,8 +1460,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D52" t="s">
-        <v>79</v>
+      <c r="D52" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,8 +1475,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D53" t="s">
-        <v>79</v>
+      <c r="D53" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,8 +1490,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D54" t="s">
-        <v>79</v>
+      <c r="D54" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,8 +1505,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D55" t="s">
-        <v>79</v>
+      <c r="D55" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,8 +1520,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D56" t="s">
-        <v>79</v>
+      <c r="D56" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,8 +1535,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D57" t="s">
-        <v>79</v>
+      <c r="D57" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,8 +1550,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D58" t="s">
-        <v>79</v>
+      <c r="D58" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,8 +1565,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D59" t="s">
-        <v>79</v>
+      <c r="D59" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,8 +1580,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D60" t="s">
-        <v>79</v>
+      <c r="D60" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,8 +1595,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D61" t="s">
-        <v>79</v>
+      <c r="D61" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,8 +1610,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D62" t="s">
-        <v>79</v>
+      <c r="D62" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,8 +1625,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D63" t="s">
-        <v>79</v>
+      <c r="D63" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,8 +1640,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D64" t="s">
-        <v>79</v>
+      <c r="D64" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,8 +1655,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D65" t="s">
-        <v>79</v>
+      <c r="D65" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,8 +1670,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D66" t="s">
-        <v>79</v>
+      <c r="D66" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,8 +1685,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D67" t="s">
-        <v>79</v>
+      <c r="D67" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,8 +1700,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D68" t="s">
-        <v>79</v>
+      <c r="D68" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,8 +1715,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D69" t="s">
-        <v>79</v>
+      <c r="D69" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,8 +1730,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D70" t="s">
-        <v>79</v>
+      <c r="D70" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,8 +1745,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D71" t="s">
-        <v>79</v>
+      <c r="D71" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,8 +1760,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D72" t="s">
-        <v>79</v>
+      <c r="D72" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,8 +1775,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D73" t="s">
-        <v>79</v>
+      <c r="D73" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,8 +1790,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D74" t="s">
-        <v>79</v>
+      <c r="D74" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,8 +1805,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D75" t="s">
-        <v>79</v>
+      <c r="D75" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,12 +1820,16 @@
         <f t="shared" ca="1" si="4"/>
         <v>45755.583333333336</v>
       </c>
-      <c r="D76" t="s">
-        <v>79</v>
+      <c r="D76" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C76" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{92770D1A-2DEC-499C-8436-DB76C66447F7}"/>
+    <hyperlink ref="D3:D76" r:id="rId2" display="bussy7598@gmail.com,sbuss@theberrycollective.com" xr:uid="{03C9F4D3-60A7-49D4-9E9C-57FB48D874B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5CB6C-69F9-41C1-A1E7-43F9A048D5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0193881E-D0C3-44DE-A46A-F029A96505AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -281,7 +281,7 @@
     <t>Emails</t>
   </si>
   <si>
-    <t>bussy7598@gmail.com,sbuss@theberrycollective.com</t>
+    <t>bussy7598@gmail.com,sbuss@theberrycollective.com.au</t>
   </si>
 </sst>
 </file>
@@ -303,6 +303,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -681,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +691,7 @@
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,7 +1829,7 @@
   <autoFilter ref="A1:C76" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{92770D1A-2DEC-499C-8436-DB76C66447F7}"/>
-    <hyperlink ref="D3:D76" r:id="rId2" display="bussy7598@gmail.com,sbuss@theberrycollective.com" xr:uid="{03C9F4D3-60A7-49D4-9E9C-57FB48D874B0}"/>
+    <hyperlink ref="D3:D76" r:id="rId2" display="bussy7598@gmail.com,sbuss@theberrycollective.com.au" xr:uid="{D4261056-C7EB-439E-9DFD-D02064E0985B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\GRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0193881E-D0C3-44DE-A46A-F029A96505AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D0693-BE59-4608-9170-91BADB0E75AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -281,7 +281,7 @@
     <t>Emails</t>
   </si>
   <si>
-    <t>bussy7598@gmail.com,sbuss@theberrycollective.com.au</t>
+    <t>bussy7598@gmail.com; sbuss@theberrycollective.com.au</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>80</v>
@@ -732,7 +732,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>80</v>
@@ -747,7 +747,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>80</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>80</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>80</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>80</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>80</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>80</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>80</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>80</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>80</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>80</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>80</v>
@@ -912,7 +912,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>80</v>
@@ -941,7 +941,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ref="C17:C20" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>80</v>
@@ -956,7 +956,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>80</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>80</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>80</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>80</v>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>80</v>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>80</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>80</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>80</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>80</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>80</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>80</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>80</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>80</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>80</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>80</v>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>80</v>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>80</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>80</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>80</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ref="C39:C41" ca="1" si="3">TODAY()-(365/12)</f>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>80</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>80</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>80</v>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ref="C47:C76" ca="1" si="4">TODAY()-(365/12)</f>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>80</v>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>80</v>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>80</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>80</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>80</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>80</v>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>80</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>80</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>80</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>80</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>80</v>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>80</v>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>80</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>80</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>80</v>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>80</v>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>80</v>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>80</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>80</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>80</v>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>80</v>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>80</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>80</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>80</v>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>80</v>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>80</v>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>80</v>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>80</v>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>80</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45755.583333333336</v>
+        <v>45756.583333333336</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>80</v>
@@ -1828,8 +1828,8 @@
   </sheetData>
   <autoFilter ref="A1:C76" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{92770D1A-2DEC-499C-8436-DB76C66447F7}"/>
-    <hyperlink ref="D3:D76" r:id="rId2" display="bussy7598@gmail.com,sbuss@theberrycollective.com.au" xr:uid="{D4261056-C7EB-439E-9DFD-D02064E0985B}"/>
+    <hyperlink ref="D2" r:id="rId1" display="bussy7598@gmail.com,sbuss@theberrycollective.com.au" xr:uid="{92770D1A-2DEC-499C-8436-DB76C66447F7}"/>
+    <hyperlink ref="D3:D76" r:id="rId2" display="bussy7598@gmail.com,sbuss@theberrycollective.com.au" xr:uid="{A733957B-368D-491F-86B4-F7E999A43737}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D0693-BE59-4608-9170-91BADB0E75AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A856C3-0481-451B-81A7-0C0879725CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>Mountain Blue Farms River Run</t>
   </si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <t>CustomStart</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>bussy7598@gmail.com; sbuss@theberrycollective.com.au</t>
   </si>
 </sst>
 </file>
@@ -291,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,14 +298,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,11 +317,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -344,10 +329,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,10 +674,9 @@
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -704,11 +686,8 @@
       <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -717,13 +696,10 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -732,13 +708,10 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -747,13 +720,10 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -762,13 +732,10 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -777,13 +744,10 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -792,13 +756,10 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -807,13 +768,10 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -822,13 +780,10 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -837,13 +792,10 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -852,13 +804,10 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -867,13 +816,10 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
@@ -882,13 +828,10 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -897,13 +840,10 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -912,13 +852,10 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -928,11 +865,8 @@
       <c r="C16" s="3">
         <v>45689</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -941,13 +875,10 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ref="C17:C20" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -956,13 +887,10 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -971,13 +899,10 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -986,13 +911,10 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1002,11 +924,8 @@
       <c r="C21" s="3">
         <v>45717</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -1015,13 +934,10 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1030,13 +946,10 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -1045,13 +958,10 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1060,13 +970,10 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1075,13 +982,10 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1090,13 +994,10 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1105,13 +1006,10 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1120,13 +1018,10 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1135,13 +1030,10 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1150,13 +1042,10 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1165,13 +1054,10 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1180,13 +1066,10 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1195,13 +1078,10 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1210,13 +1090,10 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1225,13 +1102,10 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1240,13 +1114,10 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1256,11 +1127,8 @@
       <c r="C38" s="3">
         <v>45672</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -1269,13 +1137,10 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ref="C39:C41" ca="1" si="3">TODAY()-(365/12)</f>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1284,13 +1149,10 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1299,13 +1161,10 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1315,11 +1174,8 @@
       <c r="C42" s="3">
         <v>45717</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,11 +1185,8 @@
       <c r="C43" s="3">
         <v>45717</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1343,11 +1196,8 @@
       <c r="C44" s="3">
         <v>45717</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1357,11 +1207,8 @@
       <c r="C45" s="3">
         <v>45717</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1371,11 +1218,8 @@
       <c r="C46" s="3">
         <v>45717</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1384,13 +1228,10 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ref="C47:C76" ca="1" si="4">TODAY()-(365/12)</f>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
@@ -1399,13 +1240,10 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -1414,13 +1252,10 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -1428,14 +1263,10 @@
         <v>77</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1444,13 +1275,10 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1459,13 +1287,10 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1474,13 +1299,10 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -1489,13 +1311,10 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1504,13 +1323,10 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
@@ -1519,13 +1335,10 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -1534,13 +1347,10 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
@@ -1549,13 +1359,10 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1564,13 +1371,10 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -1579,13 +1383,10 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>15</v>
       </c>
@@ -1594,13 +1395,10 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -1609,13 +1407,10 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -1624,13 +1419,10 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -1639,13 +1431,10 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>20</v>
       </c>
@@ -1654,13 +1443,10 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>38</v>
       </c>
@@ -1669,13 +1455,10 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>57</v>
       </c>
@@ -1684,13 +1467,10 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -1699,13 +1479,10 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -1714,13 +1491,10 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -1729,13 +1503,10 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -1744,13 +1515,10 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
@@ -1759,13 +1527,10 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>24</v>
       </c>
@@ -1774,13 +1539,10 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -1789,13 +1551,10 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
@@ -1804,13 +1563,10 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45762.583333333336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
@@ -1819,18 +1575,11 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45756.583333333336</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>80</v>
+        <v>45762.583333333336</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C76" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="bussy7598@gmail.com,sbuss@theberrycollective.com.au" xr:uid="{92770D1A-2DEC-499C-8436-DB76C66447F7}"/>
-    <hyperlink ref="D3:D76" r:id="rId2" display="bussy7598@gmail.com,sbuss@theberrycollective.com.au" xr:uid="{A733957B-368D-491F-86B4-F7E999A43737}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A856C3-0481-451B-81A7-0C0879725CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB06200-2118-46BA-871F-B4005F085B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
   <sheets>
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ref="C17:C20" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ref="C39:C41" ca="1" si="3">TODAY()-(365/12)</f>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ref="C47:C76" ca="1" si="4">TODAY()-(365/12)</f>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45762.583333333336</v>
+        <v>45783.583333333336</v>
       </c>
     </row>
   </sheetData>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB06200-2118-46BA-871F-B4005F085B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1C373C-A209-4585-B11F-B95C67608FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
+    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
   <sheets>
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>Mountain Blue Farms River Run</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>CustomStart</t>
+  </si>
+  <si>
+    <t>RN Farms Pty Ltd</t>
   </si>
 </sst>
 </file>
@@ -663,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +699,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45783.583333333336</v>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,8 +710,8 @@
         <v>77</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,8 +722,8 @@
         <v>77</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,8 +734,8 @@
         <v>77</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,8 +746,8 @@
         <v>77</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,8 +758,8 @@
         <v>77</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,8 +770,8 @@
         <v>77</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,8 +782,8 @@
         <v>77</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,8 +794,8 @@
         <v>77</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,8 +806,8 @@
         <v>77</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,8 +818,8 @@
         <v>77</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,8 +830,8 @@
         <v>77</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,8 +842,8 @@
         <v>77</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,8 +854,8 @@
         <v>77</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,8 +877,8 @@
         <v>77</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:C20" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,8 +889,8 @@
         <v>77</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -898,8 +901,8 @@
         <v>77</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,8 +913,8 @@
         <v>77</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,8 +936,8 @@
         <v>77</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:C37" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,8 +948,8 @@
         <v>77</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,8 +960,8 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,8 +972,8 @@
         <v>77</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,8 +984,8 @@
         <v>77</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,8 +996,8 @@
         <v>77</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,8 +1008,8 @@
         <v>77</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,8 +1020,8 @@
         <v>77</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,8 +1032,8 @@
         <v>77</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,8 +1044,8 @@
         <v>77</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,8 +1056,8 @@
         <v>77</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,8 +1068,8 @@
         <v>77</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,8 +1080,8 @@
         <v>77</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,8 +1092,8 @@
         <v>77</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,8 +1104,8 @@
         <v>77</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,8 +1116,8 @@
         <v>77</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,8 +1139,8 @@
         <v>77</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ref="C39:C41" ca="1" si="3">TODAY()-(365/12)</f>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,8 +1151,8 @@
         <v>77</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,8 +1163,8 @@
         <v>77</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,8 +1230,8 @@
         <v>77</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:C76" ca="1" si="4">TODAY()-(365/12)</f>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,8 +1242,8 @@
         <v>77</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,8 +1254,8 @@
         <v>77</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,8 +1277,8 @@
         <v>77</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,8 +1289,8 @@
         <v>77</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,8 +1301,8 @@
         <v>77</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,8 +1313,8 @@
         <v>77</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,8 +1325,8 @@
         <v>77</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,8 +1337,8 @@
         <v>77</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,8 +1349,8 @@
         <v>77</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,8 +1361,8 @@
         <v>77</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,8 +1373,8 @@
         <v>77</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,8 +1385,8 @@
         <v>77</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,8 +1397,8 @@
         <v>77</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,180 +1409,196 @@
         <v>77</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>67</v>
+      <c r="A63" t="s">
+        <v>79</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="3">
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>45783.583333333336</v>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="3">
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45790.583333333336</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C76" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}"/>
+  <autoFilter ref="A1:C76" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C77">
+      <sortCondition ref="A1:A76"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1C373C-A209-4585-B11F-B95C67608FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAF79B-FAF4-4731-AEBD-16E9F256DE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="83">
   <si>
     <t>Mountain Blue Farms River Run</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>RN Farms Pty Ltd</t>
+  </si>
+  <si>
+    <t>MizType</t>
+  </si>
+  <si>
+    <t>Unmixed</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
@@ -666,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +688,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -689,8 +698,11 @@
       <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -698,11 +710,14 @@
         <v>77</v>
       </c>
       <c r="C2" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C2:C15" ca="1" si="0">TODAY()-(365/12)</f>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -710,11 +725,14 @@
         <v>77</v>
       </c>
       <c r="C3" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -722,11 +740,14 @@
         <v>77</v>
       </c>
       <c r="C4" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -734,11 +755,14 @@
         <v>77</v>
       </c>
       <c r="C5" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -746,11 +770,14 @@
         <v>77</v>
       </c>
       <c r="C6" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -758,11 +785,14 @@
         <v>77</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -770,11 +800,14 @@
         <v>77</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -782,11 +815,14 @@
         <v>77</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -794,11 +830,14 @@
         <v>77</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -806,11 +845,14 @@
         <v>77</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -818,11 +860,14 @@
         <v>77</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
@@ -830,11 +875,14 @@
         <v>77</v>
       </c>
       <c r="C13" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -842,11 +890,14 @@
         <v>77</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -854,11 +905,14 @@
         <v>77</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -868,8 +922,11 @@
       <c r="C16" s="3">
         <v>45689</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -878,10 +935,13 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -890,10 +950,13 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -902,10 +965,13 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -914,10 +980,13 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -927,8 +996,11 @@
       <c r="C21" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -936,11 +1008,14 @@
         <v>77</v>
       </c>
       <c r="C22" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C22:C37" ca="1" si="1">TODAY()-(365/12)</f>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -948,11 +1023,14 @@
         <v>77</v>
       </c>
       <c r="C23" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -960,11 +1038,14 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -972,11 +1053,14 @@
         <v>77</v>
       </c>
       <c r="C25" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -984,11 +1068,14 @@
         <v>77</v>
       </c>
       <c r="C26" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -996,11 +1083,14 @@
         <v>77</v>
       </c>
       <c r="C27" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1008,11 +1098,14 @@
         <v>77</v>
       </c>
       <c r="C28" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1020,11 +1113,14 @@
         <v>77</v>
       </c>
       <c r="C29" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1032,11 +1128,14 @@
         <v>77</v>
       </c>
       <c r="C30" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1044,11 +1143,14 @@
         <v>77</v>
       </c>
       <c r="C31" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1056,11 +1158,14 @@
         <v>77</v>
       </c>
       <c r="C32" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1068,11 +1173,14 @@
         <v>77</v>
       </c>
       <c r="C33" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1080,11 +1188,14 @@
         <v>77</v>
       </c>
       <c r="C34" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1092,11 +1203,14 @@
         <v>77</v>
       </c>
       <c r="C35" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1104,11 +1218,14 @@
         <v>77</v>
       </c>
       <c r="C36" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1116,11 +1233,14 @@
         <v>77</v>
       </c>
       <c r="C37" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1130,8 +1250,11 @@
       <c r="C38" s="3">
         <v>45672</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -1140,10 +1263,13 @@
       </c>
       <c r="C39" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1152,10 +1278,13 @@
       </c>
       <c r="C40" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1164,10 +1293,13 @@
       </c>
       <c r="C41" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1177,8 +1309,11 @@
       <c r="C42" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1188,8 +1323,11 @@
       <c r="C43" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1199,8 +1337,11 @@
       <c r="C44" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1210,8 +1351,11 @@
       <c r="C45" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1221,8 +1365,11 @@
       <c r="C46" s="3">
         <v>45717</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1231,10 +1378,13 @@
       </c>
       <c r="C47" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
@@ -1243,10 +1393,13 @@
       </c>
       <c r="C48" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -1255,10 +1408,13 @@
       </c>
       <c r="C49" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -1268,8 +1424,11 @@
       <c r="C50" s="3">
         <v>45658</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1277,11 +1436,14 @@
         <v>77</v>
       </c>
       <c r="C51" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C51:C77" ca="1" si="2">TODAY()-(365/12)</f>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1289,11 +1451,13 @@
         <v>77</v>
       </c>
       <c r="C52" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45658</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1301,11 +1465,14 @@
         <v>77</v>
       </c>
       <c r="C53" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -1313,11 +1480,14 @@
         <v>77</v>
       </c>
       <c r="C54" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1325,11 +1495,14 @@
         <v>77</v>
       </c>
       <c r="C55" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
@@ -1337,11 +1510,14 @@
         <v>77</v>
       </c>
       <c r="C56" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -1349,11 +1525,14 @@
         <v>77</v>
       </c>
       <c r="C57" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
@@ -1361,11 +1540,14 @@
         <v>77</v>
       </c>
       <c r="C58" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1373,11 +1555,14 @@
         <v>77</v>
       </c>
       <c r="C59" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -1385,11 +1570,14 @@
         <v>77</v>
       </c>
       <c r="C60" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>15</v>
       </c>
@@ -1397,11 +1585,14 @@
         <v>77</v>
       </c>
       <c r="C61" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -1409,11 +1600,14 @@
         <v>77</v>
       </c>
       <c r="C62" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -1421,11 +1615,14 @@
         <v>77</v>
       </c>
       <c r="C63" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -1433,11 +1630,14 @@
         <v>77</v>
       </c>
       <c r="C64" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -1445,11 +1645,14 @@
         <v>77</v>
       </c>
       <c r="C65" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>20</v>
       </c>
@@ -1457,11 +1660,14 @@
         <v>77</v>
       </c>
       <c r="C66" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>38</v>
       </c>
@@ -1469,11 +1675,14 @@
         <v>77</v>
       </c>
       <c r="C67" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>57</v>
       </c>
@@ -1481,11 +1690,14 @@
         <v>77</v>
       </c>
       <c r="C68" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -1493,11 +1705,14 @@
         <v>77</v>
       </c>
       <c r="C69" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -1505,11 +1720,14 @@
         <v>77</v>
       </c>
       <c r="C70" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -1517,11 +1735,14 @@
         <v>77</v>
       </c>
       <c r="C71" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
@@ -1529,11 +1750,14 @@
         <v>77</v>
       </c>
       <c r="C72" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1</v>
       </c>
@@ -1541,11 +1765,14 @@
         <v>77</v>
       </c>
       <c r="C73" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
@@ -1553,11 +1780,14 @@
         <v>77</v>
       </c>
       <c r="C74" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
@@ -1565,11 +1795,14 @@
         <v>77</v>
       </c>
       <c r="C75" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>69</v>
       </c>
@@ -1577,11 +1810,14 @@
         <v>77</v>
       </c>
       <c r="C76" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
@@ -1589,8 +1825,11 @@
         <v>77</v>
       </c>
       <c r="C77" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45790.583333333336</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45793.583333333336</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAF79B-FAF4-4731-AEBD-16E9F256DE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DBD624-9F74-45CC-BBA4-93B865ED6713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -281,13 +281,13 @@
     <t>RN Farms Pty Ltd</t>
   </si>
   <si>
-    <t>MizType</t>
-  </si>
-  <si>
     <t>Unmixed</t>
   </si>
   <si>
     <t>Mixed</t>
+  </si>
+  <si>
+    <t>MixType</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>45689</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>45717</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>45672</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>45717</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>45717</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>45717</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>45717</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>45717</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>45658</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>45658</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>45793.583333333336</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DBD624-9F74-45CC-BBA4-93B865ED6713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBECE444-D219-4F71-9B66-435B063C66B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBECE444-D219-4F71-9B66-435B063C66B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA2EF0-66CC-44D5-9AF9-55E4B74C153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C39" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C40" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C41" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C47" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C48" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C49" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ref="C51:C77" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D51" t="s">
         <v>81</v>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D62" t="s">
         <v>81</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D63" t="s">
         <v>81</v>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D64" t="s">
         <v>81</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D71" t="s">
         <v>81</v>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D74" t="s">
         <v>81</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45793.583333333336</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA2EF0-66CC-44D5-9AF9-55E4B74C153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50774818-4165-4EBE-87DB-4A5111E0A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C39" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C40" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C41" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C47" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C48" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C49" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1436,8 +1436,7 @@
         <v>77</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" ref="C51:C77" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45797.583333333336</v>
+        <v>45658</v>
       </c>
       <c r="D51" t="s">
         <v>81</v>
@@ -1465,8 +1464,8 @@
         <v>77</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <f t="shared" ref="C51:C77" ca="1" si="2">TODAY()-(365/12)</f>
+        <v>45802.583333333336</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -1481,7 +1480,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -1496,7 +1495,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -1511,7 +1510,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1526,7 +1525,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -1541,7 +1540,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -1556,7 +1555,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -1571,7 +1570,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -1586,7 +1585,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -1601,7 +1600,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D62" t="s">
         <v>81</v>
@@ -1616,7 +1615,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D63" t="s">
         <v>81</v>
@@ -1631,7 +1630,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D64" t="s">
         <v>81</v>
@@ -1646,7 +1645,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1661,7 +1660,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1676,7 +1675,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
@@ -1691,7 +1690,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
@@ -1706,7 +1705,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
@@ -1721,7 +1720,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
@@ -1736,7 +1735,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D71" t="s">
         <v>81</v>
@@ -1751,7 +1750,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
@@ -1766,7 +1765,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
@@ -1781,7 +1780,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D74" t="s">
         <v>81</v>
@@ -1796,7 +1795,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
@@ -1811,7 +1810,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -1826,7 +1825,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45797.583333333336</v>
+        <v>45802.583333333336</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50774818-4165-4EBE-87DB-4A5111E0A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172253A1-E641-4286-A7D9-F80085C2D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -1083,8 +1083,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45658</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
@@ -1099,7 +1098,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -1114,7 +1113,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1129,7 +1128,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1144,7 +1143,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1159,7 +1158,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1174,7 +1173,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -1189,7 +1188,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -1204,7 +1203,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1219,7 +1218,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1234,7 +1233,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1263,7 +1262,7 @@
       </c>
       <c r="C39" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1278,7 +1277,7 @@
       </c>
       <c r="C40" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -1293,7 +1292,7 @@
       </c>
       <c r="C41" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -1378,7 +1377,7 @@
       </c>
       <c r="C47" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1393,7 +1392,7 @@
       </c>
       <c r="C48" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -1408,7 +1407,7 @@
       </c>
       <c r="C49" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1464,8 +1463,8 @@
         <v>77</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" ref="C51:C77" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45802.583333333336</v>
+        <f t="shared" ref="C53:C77" ca="1" si="2">TODAY()-(365/12)</f>
+        <v>45804.583333333336</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -1480,7 +1479,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -1495,7 +1494,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -1510,7 +1509,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1525,7 +1524,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -1540,7 +1539,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -1555,7 +1554,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -1570,7 +1569,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -1585,7 +1584,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -1600,7 +1599,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D62" t="s">
         <v>81</v>
@@ -1615,7 +1614,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D63" t="s">
         <v>81</v>
@@ -1630,7 +1629,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D64" t="s">
         <v>81</v>
@@ -1645,7 +1644,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1660,7 +1659,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1675,7 +1674,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
@@ -1690,7 +1689,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
@@ -1705,7 +1704,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
@@ -1720,7 +1719,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
@@ -1735,7 +1734,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D71" t="s">
         <v>81</v>
@@ -1750,7 +1749,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
@@ -1765,7 +1764,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
@@ -1780,7 +1779,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D74" t="s">
         <v>81</v>
@@ -1795,7 +1794,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
@@ -1810,7 +1809,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -1825,7 +1824,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45802.583333333336</v>
+        <v>45804.583333333336</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172253A1-E641-4286-A7D9-F80085C2D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18631033-7638-465C-9F86-916D0E01C968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
   <sheets>
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C39" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C40" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -1291,8 +1291,7 @@
         <v>77</v>
       </c>
       <c r="C41" s="3">
-        <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45536</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -1377,7 +1376,7 @@
       </c>
       <c r="C47" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1392,7 +1391,7 @@
       </c>
       <c r="C48" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -1407,7 +1406,7 @@
       </c>
       <c r="C49" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1464,7 +1463,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ref="C53:C77" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -1479,7 +1478,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -1494,7 +1493,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -1509,7 +1508,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1524,7 +1523,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -1539,7 +1538,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -1554,7 +1553,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -1569,7 +1568,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -1584,7 +1583,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -1599,7 +1598,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D62" t="s">
         <v>81</v>
@@ -1614,7 +1613,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D63" t="s">
         <v>81</v>
@@ -1629,7 +1628,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D64" t="s">
         <v>81</v>
@@ -1644,7 +1643,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1659,7 +1658,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1674,7 +1673,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
@@ -1689,7 +1688,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
@@ -1704,7 +1703,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
@@ -1719,7 +1718,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
@@ -1734,7 +1733,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D71" t="s">
         <v>81</v>
@@ -1749,7 +1748,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
@@ -1764,7 +1763,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
@@ -1779,7 +1778,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D74" t="s">
         <v>81</v>
@@ -1794,7 +1793,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
@@ -1809,7 +1808,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -1824,7 +1823,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45804.583333333336</v>
+        <v>45807.583333333336</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18631033-7638-465C-9F86-916D0E01C968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929C269-3159-4158-8E46-2E32DCA1C8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C39" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C40" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -1291,7 +1291,8 @@
         <v>77</v>
       </c>
       <c r="C41" s="3">
-        <v>45536</v>
+        <f ca="1">TODAY()-(365/12)</f>
+        <v>45811.583333333336</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -1376,7 +1377,7 @@
       </c>
       <c r="C47" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1391,7 +1392,7 @@
       </c>
       <c r="C48" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -1406,7 +1407,7 @@
       </c>
       <c r="C49" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1463,7 +1464,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ref="C53:C77" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -1478,7 +1479,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -1493,7 +1494,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -1508,7 +1509,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1523,7 +1524,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -1538,7 +1539,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -1553,7 +1554,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -1568,7 +1569,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -1583,7 +1584,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -1598,7 +1599,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D62" t="s">
         <v>81</v>
@@ -1613,7 +1614,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D63" t="s">
         <v>81</v>
@@ -1628,7 +1629,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D64" t="s">
         <v>81</v>
@@ -1643,7 +1644,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1658,7 +1659,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1673,7 +1674,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
@@ -1688,7 +1689,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
@@ -1703,7 +1704,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
@@ -1718,7 +1719,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
@@ -1733,7 +1734,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D71" t="s">
         <v>81</v>
@@ -1748,7 +1749,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
@@ -1763,7 +1764,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
@@ -1778,7 +1779,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D74" t="s">
         <v>81</v>
@@ -1793,7 +1794,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
@@ -1808,7 +1809,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -1823,7 +1824,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45807.583333333336</v>
+        <v>45811.583333333336</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929C269-3159-4158-8E46-2E32DCA1C8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F0F86-0DAC-4DAC-8F57-CC1F23B68ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
+    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
   <sheets>
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B725D-3905-44B9-B178-398A0E03EE4D}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C39" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C40" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C41" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="C47" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C48" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C49" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ref="C53:C77" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D62" t="s">
         <v>81</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D63" t="s">
         <v>81</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D64" t="s">
         <v>81</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D71" t="s">
         <v>81</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D74" t="s">
         <v>81</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45811.583333333336</v>
+        <v>45818.583333333336</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>

--- a/grower_settings.xlsx
+++ b/grower_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bussy\Grower Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F0F86-0DAC-4DAC-8F57-CC1F23B68ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40067249-ECB3-4BC9-A9AB-B05D16D9AE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{BD47AE73-EC2A-4ADF-8E94-B6892A263739}"/>
   </bookViews>
@@ -711,7 +711,7 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C15" ca="1" si="0">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C37" ca="1" si="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C39" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C40" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C41" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="C47" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C48" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C49" s="3">
         <f ca="1">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ref="C53:C77" ca="1" si="2">TODAY()-(365/12)</f>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D62" t="s">
         <v>81</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D63" t="s">
         <v>81</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D64" t="s">
         <v>81</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D71" t="s">
         <v>81</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D74" t="s">
         <v>81</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45818.583333333336</v>
+        <v>45825.583333333336</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>
